--- a/documentation/Audio-Asset-List.xlsx
+++ b/documentation/Audio-Asset-List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradm\Documents\SS-Asteroid-Hopefully-Last\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9898BE-594F-4C57-9225-B27212E39CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0109A5-E0BE-41D2-B649-6F1FFA37F2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2467561-AE38-E34B-9F00-F00259329A33}"/>
+    <workbookView xWindow="-28920" yWindow="-5790" windowWidth="29040" windowHeight="15840" xr2:uid="{F2467561-AE38-E34B-9F00-F00259329A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Filename</t>
   </si>
@@ -174,19 +174,37 @@
     <t>asteroid whooshing past sound effect, heavy reverb, played at random intervals</t>
   </si>
   <si>
-    <t>Pew.mp3</t>
-  </si>
-  <si>
     <t>In progress</t>
   </si>
   <si>
-    <t>big-explosion.mp3</t>
-  </si>
-  <si>
-    <t>small-explosion.mp3</t>
-  </si>
-  <si>
     <t>Imported old version for testing sake -- will improve</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Proceed.wav</t>
+  </si>
+  <si>
+    <t>Skip.wav</t>
+  </si>
+  <si>
+    <t>Pew.wav</t>
+  </si>
+  <si>
+    <t>big-explosion.wav</t>
+  </si>
+  <si>
+    <t>small-explosion.wav</t>
+  </si>
+  <si>
+    <t>replace with its own heavier reverb version</t>
+  </si>
+  <si>
+    <t>Woosh.wav</t>
+  </si>
+  <si>
+    <t>I held the mic up to my desk fan</t>
   </si>
 </sst>
 </file>
@@ -564,7 +582,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -607,6 +625,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -614,12 +635,15 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -628,10 +652,16 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -639,10 +669,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -650,12 +683,12 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -664,12 +697,12 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -678,12 +711,12 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -692,7 +725,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,7 +758,7 @@
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,16 +782,13 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -774,7 +804,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -790,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
@@ -806,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
@@ -838,7 +868,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
@@ -862,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
@@ -886,7 +916,7 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -902,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">

--- a/documentation/Audio-Asset-List.xlsx
+++ b/documentation/Audio-Asset-List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradm\Documents\SS-Asteroid-Hopefully-Last\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0109A5-E0BE-41D2-B649-6F1FFA37F2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C4CA1-231E-4203-80C9-777990BB0AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5790" windowWidth="29040" windowHeight="15840" xr2:uid="{F2467561-AE38-E34B-9F00-F00259329A33}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>Filename</t>
   </si>
@@ -132,9 +132,6 @@
     <t>John: "Oh no! Steve! Steve! We’re going through the asteroid belt!"</t>
   </si>
   <si>
-    <t>Steve: "Uhhh…" (same file as the above uhhhh)</t>
-  </si>
-  <si>
     <t>Petrov: "Geev us somezing Stephen! "</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>asteroid whooshing past sound effect, heavy reverb, played at random intervals</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Imported old version for testing sake -- will improve</t>
   </si>
   <si>
@@ -205,6 +199,75 @@
   </si>
   <si>
     <t>I held the mic up to my desk fan</t>
+  </si>
+  <si>
+    <t>room for improvement</t>
+  </si>
+  <si>
+    <t>17-Ken.wav</t>
+  </si>
+  <si>
+    <t>14-Ken.wav</t>
+  </si>
+  <si>
+    <t>11-Ken.wav</t>
+  </si>
+  <si>
+    <t>07-Ken.wav</t>
+  </si>
+  <si>
+    <t>05-Ken.wav</t>
+  </si>
+  <si>
+    <t>03-Ken.wav</t>
+  </si>
+  <si>
+    <t>01-Ken.wav</t>
+  </si>
+  <si>
+    <t>02-Nate.wav</t>
+  </si>
+  <si>
+    <t>04-Nate.wav</t>
+  </si>
+  <si>
+    <t>06-Brad.wav</t>
+  </si>
+  <si>
+    <t>08-Nate.wav</t>
+  </si>
+  <si>
+    <t>09-Brad.wav</t>
+  </si>
+  <si>
+    <t>10-Nate.wav</t>
+  </si>
+  <si>
+    <t>12-Brad.wav</t>
+  </si>
+  <si>
+    <t>13-Nate.wav</t>
+  </si>
+  <si>
+    <t>15-Brad.wav</t>
+  </si>
+  <si>
+    <t>16-Nate.wav</t>
+  </si>
+  <si>
+    <t>18-Brad.wav</t>
+  </si>
+  <si>
+    <t>19-Ken.wav</t>
+  </si>
+  <si>
+    <t>20-Nate.wav</t>
+  </si>
+  <si>
+    <t>21-Brad.wav</t>
+  </si>
+  <si>
+    <t>22-Nate.wav, 23-Nate.wav, 24-Ken.wav</t>
   </si>
 </sst>
 </file>
@@ -582,14 +645,14 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="95.125" customWidth="1"/>
+    <col min="3" max="3" width="157.625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -612,55 +675,55 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -669,12 +732,12 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -683,12 +746,12 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -697,12 +760,12 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -711,12 +774,12 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -725,10 +788,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -736,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -755,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,6 +850,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -791,15 +860,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -807,15 +882,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
@@ -823,15 +904,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -839,31 +926,43 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -871,23 +970,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
@@ -895,60 +1003,81 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
       <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
         <v>34</v>
       </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Audio-Asset-List.xlsx
+++ b/documentation/Audio-Asset-List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradm\Documents\SS-Asteroid-Hopefully-Last\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C4CA1-231E-4203-80C9-777990BB0AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8102329-4BD3-4AE1-ADE4-4666ECA57241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5790" windowWidth="29040" windowHeight="15840" xr2:uid="{F2467561-AE38-E34B-9F00-F00259329A33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2467561-AE38-E34B-9F00-F00259329A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>Filename</t>
   </si>
@@ -45,9 +45,6 @@
     <t>FX</t>
   </si>
   <si>
-    <t>Not Done</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Dialogue</t>
   </si>
   <si>
-    <t>Game over/high scores music (slower, 8-bit/synth sounds)</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>I like the "Sphere of IO" sound in this video (4:51) and might try to mimic something like that: https://www.youtube.com/watch?v=-MmWeZHsQzs</t>
   </si>
   <si>
-    <t>Main menu/theme music (upbeat, fast-paced, 8-bit/synth sounds) -- while in game, ramp up intensity gradually</t>
-  </si>
-  <si>
     <t>Ambient/FX</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>asteroid whooshing past sound effect, heavy reverb, played at random intervals</t>
   </si>
   <si>
-    <t>Imported old version for testing sake -- will improve</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -268,6 +256,21 @@
   </si>
   <si>
     <t>22-Nate.wav, 23-Nate.wav, 24-Ken.wav</t>
+  </si>
+  <si>
+    <t>321.wav</t>
+  </si>
+  <si>
+    <t>Menus.wav</t>
+  </si>
+  <si>
+    <t>Game.wav</t>
+  </si>
+  <si>
+    <t>Game over/high scores/main menu music (slower, 8-bit/synth sounds)</t>
+  </si>
+  <si>
+    <t>theme music (upbeat, fast-paced, 8-bit/synth sounds) -- while in game, ramp up intensity gradually</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -670,172 +673,181 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,241 +855,241 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Audio-Asset-List.xlsx
+++ b/documentation/Audio-Asset-List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradm\Documents\SS-Asteroid-Hopefully-Last\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8102329-4BD3-4AE1-ADE4-4666ECA57241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8767E71-F222-43D9-9F62-0C3F8C374BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2467561-AE38-E34B-9F00-F00259329A33}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>Filename</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>theme music (upbeat, fast-paced, 8-bit/synth sounds) -- while in game, ramp up intensity gradually</t>
+  </si>
+  <si>
+    <t>Engine.wav,Engine2.wav</t>
+  </si>
+  <si>
+    <t>Engine sound for ship</t>
+  </si>
+  <si>
+    <t>ambience.wav</t>
   </si>
 </sst>
 </file>
@@ -645,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F399C8-E7A0-3948-87D6-C59784EA590D}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -677,6 +686,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -851,33 +863,33 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -885,10 +897,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
@@ -896,10 +908,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -907,10 +919,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
@@ -918,10 +930,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -929,10 +941,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -940,10 +952,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
@@ -951,10 +963,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -962,10 +974,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -973,10 +985,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -984,10 +996,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -995,10 +1007,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>43</v>
@@ -1006,10 +1018,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
@@ -1017,10 +1029,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
@@ -1028,10 +1040,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -1039,10 +1051,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
@@ -1050,10 +1062,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
@@ -1061,10 +1073,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -1072,10 +1084,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
@@ -1083,12 +1095,23 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>43</v>
       </c>
     </row>
